--- a/Voiz_project/data/1.free_cluster_table.xlsx
+++ b/Voiz_project/data/1.free_cluster_table.xlsx
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="H2">
-        <v>24.46666666666667</v>
+        <v>24.23529411764706</v>
       </c>
       <c r="I2">
         <v>19</v>
@@ -690,10 +690,10 @@
         <v>28</v>
       </c>
       <c r="L2">
-        <v>21.66666666666667</v>
+        <v>21.23529411764706</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -702,7 +702,7 @@
         <v>34</v>
       </c>
       <c r="P2">
-        <v>9.266666666666667</v>
+        <v>9.117647058823529</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="E3">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="H3">
-        <v>11.14864864864865</v>
+        <v>11.32911392405063</v>
       </c>
       <c r="I3">
         <v>7</v>
@@ -739,10 +739,10 @@
         <v>28</v>
       </c>
       <c r="L3">
-        <v>23.54054054054054</v>
+        <v>22.89873417721519</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -751,7 +751,7 @@
         <v>34</v>
       </c>
       <c r="P3">
-        <v>11.91891891891892</v>
+        <v>11.75949367088608</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -767,16 +767,16 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>2.313725490196079</v>
+        <v>2.542372881355932</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>28</v>
       </c>
       <c r="L4">
-        <v>25.01960784313725</v>
+        <v>24.26271186440678</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -800,7 +800,7 @@
         <v>35</v>
       </c>
       <c r="P4">
-        <v>12.64705882352941</v>
+        <v>13.05084745762712</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -827,10 +827,10 @@
         <v>70</v>
       </c>
       <c r="H5">
-        <v>54.375</v>
+        <v>54.45</v>
       </c>
       <c r="I5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -839,10 +839,10 @@
         <v>16</v>
       </c>
       <c r="L5">
-        <v>11.625</v>
+        <v>11.05</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -851,7 +851,7 @@
         <v>30</v>
       </c>
       <c r="P5">
-        <v>13.75</v>
+        <v>13.15</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>32</v>
       </c>
       <c r="E6">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -876,7 +876,7 @@
         <v>39</v>
       </c>
       <c r="H6">
-        <v>25.32954545454545</v>
+        <v>25.91304347826087</v>
       </c>
       <c r="I6">
         <v>19</v>
@@ -885,13 +885,13 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6">
-        <v>12.22727272727273</v>
+        <v>11.10434782608696</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -900,7 +900,7 @@
         <v>35</v>
       </c>
       <c r="P6">
-        <v>11.30681818181818</v>
+        <v>12.0695652173913</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -916,16 +916,16 @@
         <v>33</v>
       </c>
       <c r="E7">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>11.44444444444444</v>
+        <v>11.90217391304348</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -937,10 +937,10 @@
         <v>18</v>
       </c>
       <c r="L7">
-        <v>12.71794871794872</v>
+        <v>11.59782608695652</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -949,7 +949,7 @@
         <v>35</v>
       </c>
       <c r="P7">
-        <v>11.35897435897436</v>
+        <v>10.93115942028986</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>34</v>
       </c>
       <c r="E8">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>2.904166666666667</v>
+        <v>3.237179487179487</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>2</v>
       </c>
       <c r="K8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8">
-        <v>12.52083333333333</v>
+        <v>11.58974358974359</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -998,7 +998,7 @@
         <v>35</v>
       </c>
       <c r="P8">
-        <v>12.98333333333333</v>
+        <v>13.18910256410256</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1025,22 +1025,22 @@
         <v>70</v>
       </c>
       <c r="H9">
-        <v>53.05607476635514</v>
+        <v>52.9622641509434</v>
       </c>
       <c r="I9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>5.719626168224299</v>
+        <v>5.537735849056604</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1049,7 +1049,7 @@
         <v>35</v>
       </c>
       <c r="P9">
-        <v>13.97196261682243</v>
+        <v>13.89622641509434</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>36</v>
       </c>
       <c r="E10">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1074,7 +1074,7 @@
         <v>40</v>
       </c>
       <c r="H10">
-        <v>25.64516129032258</v>
+        <v>25.91304347826087</v>
       </c>
       <c r="I10">
         <v>19</v>
@@ -1083,13 +1083,13 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>5.6575682382134</v>
+        <v>5.282608695652174</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1098,7 +1098,7 @@
         <v>35</v>
       </c>
       <c r="P10">
-        <v>10.85111662531017</v>
+        <v>10.19836956521739</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>37</v>
       </c>
       <c r="E11">
-        <v>1112</v>
+        <v>996</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11">
-        <v>11.57464028776978</v>
+        <v>12.14759036144578</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1132,13 +1132,13 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>5.572841726618705</v>
+        <v>5.343373493975903</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="P11">
-        <v>11.61330935251799</v>
+        <v>11.4929718875502</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>1090</v>
+        <v>1124</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>2.794495412844037</v>
+        <v>3.112099644128114</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12">
-        <v>5.507339449541284</v>
+        <v>5.251779359430605</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1196,7 +1196,7 @@
         <v>35</v>
       </c>
       <c r="P12">
-        <v>14.21100917431193</v>
+        <v>14.20373665480427</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>39</v>
       </c>
       <c r="E13">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1223,10 +1223,10 @@
         <v>70</v>
       </c>
       <c r="H13">
-        <v>54.28504672897196</v>
+        <v>53.19213973799127</v>
       </c>
       <c r="I13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="L13">
-        <v>1.439252336448598</v>
+        <v>1.441048034934498</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>35</v>
       </c>
       <c r="P13">
-        <v>12.32242990654206</v>
+        <v>11.82969432314411</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>40</v>
       </c>
       <c r="E14">
-        <v>1050</v>
+        <v>982</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1272,7 +1272,7 @@
         <v>40</v>
       </c>
       <c r="H14">
-        <v>25.82380952380952</v>
+        <v>25.79837067209776</v>
       </c>
       <c r="I14">
         <v>19</v>
@@ -1284,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="L14">
-        <v>1.545714285714286</v>
+        <v>1.520366598778004</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>35</v>
       </c>
       <c r="P14">
-        <v>11.44</v>
+        <v>11.66395112016293</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>41</v>
       </c>
       <c r="E15">
-        <v>2835</v>
+        <v>2613</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>11.31851851851852</v>
+        <v>11.79410639112132</v>
       </c>
       <c r="I15">
         <v>7</v>
@@ -1333,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="L15">
-        <v>1.461022927689594</v>
+        <v>1.460007654037505</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>35</v>
       </c>
       <c r="P15">
-        <v>12.868430335097</v>
+        <v>12.79027937236892</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1361,16 +1361,16 @@
         <v>42</v>
       </c>
       <c r="E16">
-        <v>4256</v>
+        <v>4481</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>2.267387218045113</v>
+        <v>2.510600312430261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>1.356672932330827</v>
+        <v>1.352153537156885</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>35</v>
       </c>
       <c r="P16">
-        <v>15.42716165413534</v>
+        <v>15.33854050435171</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>44</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1472,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="H18">
-        <v>25.23076923076923</v>
+        <v>25</v>
       </c>
       <c r="I18">
         <v>19</v>
@@ -1484,10 +1484,10 @@
         <v>28</v>
       </c>
       <c r="L18">
-        <v>21.92307692307692</v>
+        <v>21.64285714285714</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>84</v>
       </c>
       <c r="P18">
-        <v>57.07692307692308</v>
+        <v>58</v>
       </c>
       <c r="Q18">
         <v>37</v>
@@ -1512,7 +1512,7 @@
         <v>45</v>
       </c>
       <c r="E19">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1521,10 +1521,10 @@
         <v>18</v>
       </c>
       <c r="H19">
-        <v>11.06666666666667</v>
+        <v>11.86</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -1533,19 +1533,19 @@
         <v>28</v>
       </c>
       <c r="L19">
-        <v>24.51111111111111</v>
+        <v>23.56</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P19">
-        <v>58.37777777777778</v>
+        <v>58.36</v>
       </c>
       <c r="Q19">
         <v>37</v>
@@ -1561,16 +1561,16 @@
         <v>46</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>1.72</v>
+        <v>2.063492063492064</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>28</v>
       </c>
       <c r="L20">
-        <v>25.48</v>
+        <v>24.17460317460317</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1594,10 +1594,10 @@
         <v>88</v>
       </c>
       <c r="P20">
-        <v>57.58</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1612,7 +1612,7 @@
         <v>47</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -1621,7 +1621,7 @@
         <v>70</v>
       </c>
       <c r="H21">
-        <v>58.41666666666666</v>
+        <v>56.5</v>
       </c>
       <c r="I21">
         <v>42</v>
@@ -1633,19 +1633,19 @@
         <v>14</v>
       </c>
       <c r="L21">
-        <v>10.91666666666667</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P21">
-        <v>56.16666666666666</v>
+        <v>58.61111111111111</v>
       </c>
       <c r="Q21">
         <v>41</v>
@@ -1661,16 +1661,16 @@
         <v>48</v>
       </c>
       <c r="E22">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>25.12244897959184</v>
+        <v>25.46753246753247</v>
       </c>
       <c r="I22">
         <v>19</v>
@@ -1679,13 +1679,13 @@
         <v>2</v>
       </c>
       <c r="K22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22">
-        <v>12.28571428571429</v>
+        <v>10.79220779220779</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>89</v>
       </c>
       <c r="P22">
-        <v>58.28571428571428</v>
+        <v>57.68831168831169</v>
       </c>
       <c r="Q22">
         <v>37</v>
@@ -1710,16 +1710,16 @@
         <v>49</v>
       </c>
       <c r="E23">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23">
-        <v>11.77241379310345</v>
+        <v>11.9593023255814</v>
       </c>
       <c r="I23">
         <v>7</v>
@@ -1731,10 +1731,10 @@
         <v>18</v>
       </c>
       <c r="L23">
-        <v>12.48275862068965</v>
+        <v>11.31976744186047</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>89</v>
       </c>
       <c r="P23">
-        <v>58.13103448275862</v>
+        <v>57.81976744186046</v>
       </c>
       <c r="Q23">
         <v>36</v>
@@ -1759,16 +1759,16 @@
         <v>50</v>
       </c>
       <c r="E24">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24">
-        <v>2.686635944700461</v>
+        <v>3.039426523297491</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>2</v>
       </c>
       <c r="K24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L24">
-        <v>12.64976958525346</v>
+        <v>11.60573476702509</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>89</v>
       </c>
       <c r="P24">
-        <v>58.13824884792627</v>
+        <v>58.17921146953405</v>
       </c>
       <c r="Q24">
         <v>36</v>
@@ -1810,7 +1810,7 @@
         <v>51</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1819,19 +1819,19 @@
         <v>70</v>
       </c>
       <c r="H25">
-        <v>54.85714285714285</v>
+        <v>53.97101449275362</v>
       </c>
       <c r="I25">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L25">
-        <v>6.185714285714286</v>
+        <v>5.855072463768116</v>
       </c>
       <c r="M25">
         <v>4</v>
@@ -1843,7 +1843,7 @@
         <v>89</v>
       </c>
       <c r="P25">
-        <v>61.08571428571429</v>
+        <v>60.65217391304348</v>
       </c>
       <c r="Q25">
         <v>36</v>
@@ -1859,7 +1859,7 @@
         <v>52</v>
       </c>
       <c r="E26">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1868,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="H26">
-        <v>26.48995983935743</v>
+        <v>26.48803827751196</v>
       </c>
       <c r="I26">
         <v>19</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L26">
-        <v>5.927710843373494</v>
+        <v>5.483253588516747</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>89</v>
       </c>
       <c r="P26">
-        <v>57.46586345381526</v>
+        <v>57.23923444976077</v>
       </c>
       <c r="Q26">
         <v>36</v>
@@ -1908,16 +1908,16 @@
         <v>53</v>
       </c>
       <c r="E27">
-        <v>678</v>
+        <v>595</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27">
-        <v>11.19026548672566</v>
+        <v>11.69243697478992</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -1926,13 +1926,13 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>5.615044247787611</v>
+        <v>5.319327731092437</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>89</v>
       </c>
       <c r="P27">
-        <v>56.87758112094395</v>
+        <v>57.21344537815126</v>
       </c>
       <c r="Q27">
         <v>36</v>
@@ -1957,16 +1957,16 @@
         <v>54</v>
       </c>
       <c r="E28">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H28">
-        <v>2.604485219164118</v>
+        <v>2.83417593528817</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1975,13 +1975,13 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>5.477064220183486</v>
+        <v>5.254802831142568</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1990,7 +1990,7 @@
         <v>89</v>
       </c>
       <c r="P28">
-        <v>58.41692150866463</v>
+        <v>58.14661274014156</v>
       </c>
       <c r="Q28">
         <v>36</v>
@@ -2008,7 +2008,7 @@
         <v>55</v>
       </c>
       <c r="E29">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -2017,10 +2017,10 @@
         <v>70</v>
       </c>
       <c r="H29">
-        <v>55.38028169014085</v>
+        <v>54.85714285714285</v>
       </c>
       <c r="I29">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <v>1.570422535211268</v>
+        <v>1.557823129251701</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>89</v>
       </c>
       <c r="P29">
-        <v>56.78169014084507</v>
+        <v>56.92517006802721</v>
       </c>
       <c r="Q29">
         <v>36</v>
@@ -2057,7 +2057,7 @@
         <v>56</v>
       </c>
       <c r="E30">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2066,7 +2066,7 @@
         <v>40</v>
       </c>
       <c r="H30">
-        <v>26.31687242798354</v>
+        <v>26.48913043478261</v>
       </c>
       <c r="I30">
         <v>19</v>
@@ -2078,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>1.425925925925926</v>
+        <v>1.4</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>89</v>
       </c>
       <c r="P30">
-        <v>57.85390946502058</v>
+        <v>58.03043478260869</v>
       </c>
       <c r="Q30">
         <v>36</v>
@@ -2106,16 +2106,16 @@
         <v>57</v>
       </c>
       <c r="E31">
-        <v>1645</v>
+        <v>1485</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31">
-        <v>11.05106382978723</v>
+        <v>11.58989898989899</v>
       </c>
       <c r="I31">
         <v>7</v>
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>1.40790273556231</v>
+        <v>1.396632996632997</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>89</v>
       </c>
       <c r="P31">
-        <v>56.64924012158055</v>
+        <v>56.53602693602694</v>
       </c>
       <c r="Q31">
         <v>36</v>
@@ -2155,16 +2155,16 @@
         <v>58</v>
       </c>
       <c r="E32">
-        <v>3923</v>
+        <v>4078</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>2.049197043079276</v>
+        <v>2.243256498283472</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="L32">
-        <v>1.366301300025491</v>
+        <v>1.365129965669446</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>89</v>
       </c>
       <c r="P32">
-        <v>57.95895997960744</v>
+        <v>57.92667974497303</v>
       </c>
       <c r="Q32">
         <v>36</v>
@@ -2257,7 +2257,7 @@
         <v>60</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -2266,7 +2266,7 @@
         <v>34</v>
       </c>
       <c r="H34">
-        <v>24.71428571428572</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="I34">
         <v>19</v>
@@ -2278,10 +2278,10 @@
         <v>27</v>
       </c>
       <c r="L34">
-        <v>23.28571428571428</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>168</v>
       </c>
       <c r="P34">
-        <v>132.2857142857143</v>
+        <v>127.6666666666667</v>
       </c>
       <c r="Q34">
         <v>92</v>
@@ -2306,7 +2306,7 @@
         <v>61</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="H35">
-        <v>12.07142857142857</v>
+        <v>12.17647058823529</v>
       </c>
       <c r="I35">
         <v>8</v>
@@ -2327,10 +2327,10 @@
         <v>28</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>22.94117647058824</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>167</v>
       </c>
       <c r="P35">
-        <v>143.2142857142857</v>
+        <v>142.8823529411765</v>
       </c>
       <c r="Q35">
         <v>94</v>
@@ -2355,7 +2355,7 @@
         <v>62</v>
       </c>
       <c r="E36">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>6</v>
       </c>
       <c r="H36">
-        <v>2.809523809523809</v>
+        <v>2.875</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>28</v>
       </c>
       <c r="L36">
-        <v>24.52380952380953</v>
+        <v>23.70833333333333</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>183</v>
       </c>
       <c r="P36">
-        <v>131.7142857142857</v>
+        <v>129.5833333333333</v>
       </c>
       <c r="Q36">
         <v>90</v>
@@ -2406,7 +2406,7 @@
         <v>63</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -2415,7 +2415,7 @@
         <v>70</v>
       </c>
       <c r="H37">
-        <v>52.5</v>
+        <v>50.42857142857143</v>
       </c>
       <c r="I37">
         <v>43</v>
@@ -2427,22 +2427,22 @@
         <v>10</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>9.571428571428571</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="P37">
-        <v>121</v>
+        <v>125.4285714285714</v>
       </c>
       <c r="Q37">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2455,7 +2455,7 @@
         <v>64</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -2464,7 +2464,7 @@
         <v>39</v>
       </c>
       <c r="H38">
-        <v>26.075</v>
+        <v>26.38297872340426</v>
       </c>
       <c r="I38">
         <v>19</v>
@@ -2473,13 +2473,13 @@
         <v>2</v>
       </c>
       <c r="K38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L38">
-        <v>12.375</v>
+        <v>11.42553191489362</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>166</v>
       </c>
       <c r="P38">
-        <v>123.9</v>
+        <v>124.3829787234042</v>
       </c>
       <c r="Q38">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2504,16 +2504,16 @@
         <v>65</v>
       </c>
       <c r="E39">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39">
-        <v>11.23863636363636</v>
+        <v>12.14432989690722</v>
       </c>
       <c r="I39">
         <v>7</v>
@@ -2522,22 +2522,22 @@
         <v>2</v>
       </c>
       <c r="K39">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L39">
-        <v>12.73863636363636</v>
+        <v>11.65979381443299</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P39">
-        <v>128.9886363636364</v>
+        <v>129.7422680412371</v>
       </c>
       <c r="Q39">
         <v>90</v>
@@ -2553,16 +2553,16 @@
         <v>66</v>
       </c>
       <c r="E40">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2571,13 +2571,13 @@
         <v>2</v>
       </c>
       <c r="K40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L40">
-        <v>12.90123456790123</v>
+        <v>11.775</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>183</v>
       </c>
       <c r="P40">
-        <v>123.1604938271605</v>
+        <v>122.55</v>
       </c>
       <c r="Q40">
         <v>90</v>
@@ -2604,7 +2604,7 @@
         <v>67</v>
       </c>
       <c r="E41">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -2613,7 +2613,7 @@
         <v>70</v>
       </c>
       <c r="H41">
-        <v>53.56521739130435</v>
+        <v>53.85714285714285</v>
       </c>
       <c r="I41">
         <v>41</v>
@@ -2622,22 +2622,22 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L41">
-        <v>6.434782608695652</v>
+        <v>5.904761904761905</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P41">
-        <v>113.6086956521739</v>
+        <v>111</v>
       </c>
       <c r="Q41">
         <v>91</v>
@@ -2653,7 +2653,7 @@
         <v>68</v>
       </c>
       <c r="E42">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2662,7 +2662,7 @@
         <v>40</v>
       </c>
       <c r="H42">
-        <v>26.015625</v>
+        <v>26.075</v>
       </c>
       <c r="I42">
         <v>19</v>
@@ -2671,13 +2671,13 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L42">
-        <v>6.046875</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>179</v>
       </c>
       <c r="P42">
-        <v>123.3359375</v>
+        <v>122.4583333333333</v>
       </c>
       <c r="Q42">
         <v>90</v>
@@ -2702,16 +2702,16 @@
         <v>69</v>
       </c>
       <c r="E43">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43">
-        <v>11.48780487804878</v>
+        <v>11.77319587628866</v>
       </c>
       <c r="I43">
         <v>7</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L43">
-        <v>5.698170731707317</v>
+        <v>5.405498281786942</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>179</v>
       </c>
       <c r="P43">
-        <v>124.8384146341463</v>
+        <v>124.9278350515464</v>
       </c>
       <c r="Q43">
         <v>90</v>
@@ -2751,16 +2751,16 @@
         <v>70</v>
       </c>
       <c r="E44">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H44">
-        <v>2.697777777777778</v>
+        <v>2.878378378378379</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L44">
-        <v>5.313333333333333</v>
+        <v>5.056306306306307</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>182</v>
       </c>
       <c r="P44">
-        <v>124.9466666666667</v>
+        <v>125.2432432432432</v>
       </c>
       <c r="Q44">
         <v>90</v>
@@ -2802,7 +2802,7 @@
         <v>71</v>
       </c>
       <c r="E45">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -2811,7 +2811,7 @@
         <v>70</v>
       </c>
       <c r="H45">
-        <v>54.12765957446808</v>
+        <v>54.39130434782609</v>
       </c>
       <c r="I45">
         <v>41</v>
@@ -2823,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="L45">
-        <v>1.74468085106383</v>
+        <v>1.717391304347826</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>167</v>
       </c>
       <c r="P45">
-        <v>114.5744680851064</v>
+        <v>114.6304347826087</v>
       </c>
       <c r="Q45">
         <v>91</v>
@@ -2851,7 +2851,7 @@
         <v>72</v>
       </c>
       <c r="E46">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -2860,7 +2860,7 @@
         <v>39</v>
       </c>
       <c r="H46">
-        <v>25.25316455696203</v>
+        <v>25.68949771689498</v>
       </c>
       <c r="I46">
         <v>19</v>
@@ -2872,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="L46">
-        <v>1.531645569620253</v>
+        <v>1.47945205479452</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>181</v>
       </c>
       <c r="P46">
-        <v>117.4810126582279</v>
+        <v>117.2100456621005</v>
       </c>
       <c r="Q46">
         <v>90</v>
@@ -2900,16 +2900,16 @@
         <v>73</v>
       </c>
       <c r="E47">
-        <v>776</v>
+        <v>709</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H47">
-        <v>11.07216494845361</v>
+        <v>11.66008462623413</v>
       </c>
       <c r="I47">
         <v>7</v>
@@ -2921,7 +2921,7 @@
         <v>3</v>
       </c>
       <c r="L47">
-        <v>1.547680412371134</v>
+        <v>1.554301833568406</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>180</v>
       </c>
       <c r="P47">
-        <v>119.9355670103093</v>
+        <v>119.7559943582511</v>
       </c>
       <c r="Q47">
         <v>90</v>
@@ -2949,16 +2949,16 @@
         <v>74</v>
       </c>
       <c r="E48">
-        <v>2033</v>
+        <v>2106</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H48">
-        <v>2.022134776192818</v>
+        <v>2.196106362773029</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="L48">
-        <v>1.406787998032464</v>
+        <v>1.406457739791073</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>183</v>
       </c>
       <c r="P48">
-        <v>122.2390555828824</v>
+        <v>122.1780626780627</v>
       </c>
       <c r="Q48">
         <v>90</v>
